--- a/data/trans_camb/P25A_11_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_11_R2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>7,42</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 9,89</t>
+          <t>-11,63; 6,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 4,92</t>
+          <t>-10,26; 8,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 7,06</t>
+          <t>-13,65; 6,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 8,2</t>
+          <t>-5,07; 13,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 6,04</t>
+          <t>-5,74; 14,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 5,25</t>
+          <t>-3,85; 20,79</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 8,59</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; 9,05</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,95; 12,27</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>141,45%</t>
+          <t>-34,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>-11,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>-19,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>76,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>76,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>142,91%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20,79%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>32,03%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>65,09%</t>
         </is>
       </c>
     </row>
@@ -715,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-63,8; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-60,8; 241,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-57,58; 257,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,43; 222,73</t>
+          <t>-83,35; 1063,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,67; 199,5</t>
+          <t>-83,26; 1303,4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-66,33; 441,53</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-62,99; 325,08</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-55,17; 409,88</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>3,21</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,46</t>
+          <t>-3,67; 3,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,02</t>
+          <t>-3,59; 2,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 3,05</t>
+          <t>-3,75; 3,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 7,0</t>
+          <t>-4,48; 4,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,97</t>
+          <t>-3,26; 6,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,71</t>
+          <t>-2,34; 8,82</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 2,86</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 3,27</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 4,44</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46,14%</t>
+          <t>-16,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,28%</t>
+          <t>-17,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>-1,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,6%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>52,51%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-2,97%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28,39%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,53; 426,02</t>
+          <t>-100,0; 430,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,73; 505,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,15; 92,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,76; 169,97</t>
+          <t>-56,48; 146,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,15; 80,85</t>
+          <t>-44,96; 163,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,18; 161,17</t>
+          <t>-29,57; 233,6</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-53,83; 102,81</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-46,93; 109,24</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-33,48; 138,9</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 0,7</t>
+          <t>-6,12; 2,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 3,37</t>
+          <t>-3,83; 6,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 6,37</t>
+          <t>-4,76; 5,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,33</t>
+          <t>-2,05; 4,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,06</t>
+          <t>-1,99; 4,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,83</t>
+          <t>-1,05; 6,46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 2,52</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 4,12</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 4,86</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-64,47%</t>
+          <t>-44,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,28%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>119,12%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>60,79%</t>
+          <t>49,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>53,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>127,83%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-2,05%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>39,06%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>63,52%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 161,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,29; 275,31</t>
+          <t>-79,27; 594,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 526,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,6; 331,57</t>
+          <t>-67,49; 614,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 172,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,23; 164,39</t>
+          <t>-51,44; 763,27</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-68,13; 219,18</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-45,26; 315,62</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-33,82; 336,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 4,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 2,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>32,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,08; 123,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,62; 140,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,17; 110,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 132,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 66,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 91,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 1,61</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 2,45</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 2,54</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 4,06</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 4,89</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 7,94</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 2,06</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 3,02</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 4,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-26,42%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,5%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-6,93%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>21,96%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>40,51%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>92,12%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>22,52%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>50,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-76,99; 89,58</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-63,32; 130,95</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-64,04; 140,55</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-37,98; 128,32</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-23,35; 163,59</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>5,0; 268,62</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-38,18; 75,65</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-22,35; 102,61</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-6,95; 140,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
